--- a/GL200_Script_LaunchAutoPost_21B.xlsx
+++ b/GL200_Script_LaunchAutoPost_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6BB85-F1BC-448D-9E55-E92FD940BBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA08F970-3306-4F1E-A4CA-13BF8D57666F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchAutoPost" sheetId="30" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="326">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -18987,7 +18987,7 @@
   <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -19359,9 +19359,7 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
@@ -19397,9 +19395,7 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
@@ -19431,9 +19427,7 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="13">
-      <c r="A12" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
@@ -19473,9 +19467,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="13">
-      <c r="A13" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>1</v>
       </c>
@@ -19507,9 +19499,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="13">
-      <c r="A14" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
         <v>1</v>
       </c>
@@ -19549,9 +19539,7 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="13">
-      <c r="A15" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
         <v>1</v>
       </c>

--- a/GL200_Script_LaunchAutoPost_21B.xlsx
+++ b/GL200_Script_LaunchAutoPost_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA08F970-3306-4F1E-A4CA-13BF8D57666F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD65169E-95AB-43C5-ADE0-E614550D7993}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="327">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -511,9 +511,6 @@
     <t>SelectCurrency</t>
   </si>
   <si>
-    <t>SetDelay</t>
-  </si>
-  <si>
     <t>ConversionRate</t>
   </si>
   <si>
@@ -1004,6 +1001,12 @@
   </si>
   <si>
     <t>Step 55</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
   </si>
 </sst>
 </file>
@@ -18987,7 +18990,7 @@
   <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -19049,7 +19052,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13">
@@ -19079,7 +19082,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="12"/>
@@ -19115,14 +19118,14 @@
         <v>41</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -19135,10 +19138,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>27</v>
@@ -19162,7 +19165,7 @@
         <v>26</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -19198,7 +19201,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -19234,7 +19237,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N6" s="12"/>
     </row>
@@ -19274,7 +19277,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N7" s="12"/>
     </row>
@@ -19305,7 +19308,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>25</v>
@@ -19314,7 +19317,7 @@
         <v>25</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N8" s="12"/>
     </row>
@@ -19354,7 +19357,7 @@
         <v>25</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N9" s="12"/>
     </row>
@@ -19367,10 +19370,10 @@
         <v>50</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>27</v>
@@ -19379,18 +19382,18 @@
         <v>49</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N10" s="12"/>
     </row>
@@ -19403,10 +19406,10 @@
         <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>27</v>
@@ -19415,14 +19418,14 @@
         <v>24</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N11" s="12"/>
     </row>
@@ -19447,13 +19450,13 @@
         <v>49</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>25</v>
@@ -19462,7 +19465,7 @@
         <v>25</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N12" s="12"/>
     </row>
@@ -19487,14 +19490,14 @@
         <v>24</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="15"/>
       <c r="K13" s="13"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N13" s="12"/>
     </row>
@@ -19504,10 +19507,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>48</v>
@@ -19525,7 +19528,7 @@
         <v>41</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>25</v>
@@ -19534,7 +19537,7 @@
         <v>25</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N14" s="12"/>
     </row>
@@ -19566,13 +19569,13 @@
       <c r="K15" s="13"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="13">
       <c r="A16" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>110</v>
@@ -19599,18 +19602,18 @@
         <v>41</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" ht="13">
       <c r="A17" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>110</v>
@@ -19638,13 +19641,13 @@
       <c r="K17" s="13"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="13">
       <c r="A18" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>110</v>
@@ -19671,18 +19674,18 @@
         <v>41</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="13">
       <c r="A19" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>110</v>
@@ -19691,7 +19694,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>48</v>
@@ -19703,24 +19706,24 @@
         <v>49</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" ht="13">
       <c r="A20" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>110</v>
@@ -19729,10 +19732,10 @@
         <v>104</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>27</v>
@@ -19741,65 +19744,65 @@
         <v>24</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="15"/>
       <c r="K20" s="13"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" ht="13">
       <c r="A21" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="F21" s="12" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>161</v>
+        <v>326</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" ht="13">
       <c r="A22" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>48</v>
@@ -19811,36 +19814,36 @@
         <v>49</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="13">
       <c r="A23" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>27</v>
@@ -19849,70 +19852,70 @@
         <v>24</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="15"/>
       <c r="K23" s="13"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" ht="13">
       <c r="A24" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" ht="13">
       <c r="A25" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>27</v>
@@ -19921,36 +19924,36 @@
         <v>49</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" ht="13">
       <c r="A26" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>27</v>
@@ -19959,33 +19962,33 @@
         <v>44</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" ht="13">
       <c r="A27" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>48</v>
@@ -19997,36 +20000,36 @@
         <v>49</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" ht="13">
       <c r="A28" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>27</v>
@@ -20035,29 +20038,29 @@
         <v>24</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="15"/>
       <c r="K28" s="13"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" ht="13">
       <c r="A29" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>48</v>
@@ -20069,13 +20072,13 @@
         <v>49</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>25</v>
@@ -20084,25 +20087,25 @@
         <v>25</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" ht="13">
       <c r="A30" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>27</v>
@@ -20111,68 +20114,68 @@
         <v>24</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="15"/>
       <c r="K30" s="13"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" ht="13">
       <c r="A31" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="F31" s="12" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>161</v>
+        <v>326</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" ht="13">
       <c r="A32" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>292</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>27</v>
@@ -20187,30 +20190,30 @@
         <v>41</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N32" s="12"/>
     </row>
     <row r="33" spans="1:14" ht="13">
       <c r="A33" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>27</v>
@@ -20226,25 +20229,25 @@
       <c r="K33" s="13"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" ht="13">
       <c r="A34" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>27</v>
@@ -20253,36 +20256,36 @@
         <v>49</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N34" s="12"/>
     </row>
     <row r="35" spans="1:14" ht="13">
       <c r="A35" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>27</v>
@@ -20291,32 +20294,32 @@
         <v>24</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="14"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" ht="13">
       <c r="A36" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>27</v>
@@ -20325,36 +20328,36 @@
         <v>49</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" ht="13">
       <c r="A37" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>27</v>
@@ -20363,26 +20366,26 @@
         <v>24</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="14"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" ht="13">
       <c r="A38" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>68</v>
@@ -20397,13 +20400,13 @@
         <v>49</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>25</v>
@@ -20412,25 +20415,25 @@
         <v>25</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" ht="13">
       <c r="A39" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D39" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>27</v>
@@ -20439,7 +20442,7 @@
         <v>24</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>25</v>
@@ -20448,22 +20451,22 @@
       <c r="K39" s="13"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" ht="13">
       <c r="A40" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>48</v>
@@ -20475,13 +20478,13 @@
         <v>49</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>25</v>
@@ -20490,25 +20493,25 @@
         <v>25</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:14" ht="13">
       <c r="A41" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D41" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>27</v>
@@ -20517,29 +20520,29 @@
         <v>24</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="15"/>
       <c r="K41" s="13"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:14" ht="13">
       <c r="A42" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>48</v>
@@ -20551,13 +20554,13 @@
         <v>49</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>25</v>
@@ -20566,58 +20569,58 @@
         <v>25</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N42" s="12"/>
     </row>
     <row r="43" spans="1:14" ht="13">
       <c r="A43" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>161</v>
+        <v>326</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:14" ht="13">
       <c r="A44" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>48</v>
@@ -20629,13 +20632,13 @@
         <v>49</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>25</v>
@@ -20644,25 +20647,25 @@
         <v>25</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:14" ht="13">
       <c r="A45" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>27</v>
@@ -20671,65 +20674,65 @@
         <v>24</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="15"/>
       <c r="K45" s="13"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N45" s="12"/>
     </row>
     <row r="46" spans="1:14" ht="13">
       <c r="A46" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>161</v>
+        <v>326</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14" ht="13">
       <c r="A47" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>48</v>
@@ -20741,13 +20744,13 @@
         <v>49</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>25</v>
@@ -20756,25 +20759,25 @@
         <v>25</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:14" ht="13">
       <c r="A48" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>27</v>
@@ -20783,14 +20786,14 @@
         <v>24</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="15"/>
       <c r="K48" s="13"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N48" s="12"/>
     </row>
@@ -20800,67 +20803,67 @@
         <v>1</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D49" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N49" s="12"/>
     </row>
     <row r="50" spans="1:14" ht="13">
       <c r="A50" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>161</v>
+        <v>326</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12" t="s">
         <v>41</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N50" s="12"/>
     </row>
@@ -20870,10 +20873,10 @@
         <v>110</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>48</v>
@@ -20891,12 +20894,12 @@
         <v>41</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N51" s="12"/>
     </row>
@@ -20906,7 +20909,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>111</v>
@@ -20936,7 +20939,7 @@
         <v>26</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N52" s="12"/>
     </row>
@@ -20946,7 +20949,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>115</v>
@@ -20967,7 +20970,7 @@
         <v>41</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>25</v>
@@ -20976,7 +20979,7 @@
         <v>26</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N53" s="12"/>
     </row>
@@ -20986,7 +20989,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>118</v>
@@ -21016,7 +21019,7 @@
         <v>26</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N54" s="12"/>
     </row>
@@ -21026,7 +21029,7 @@
         <v>110</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>120</v>
@@ -21047,7 +21050,7 @@
         <v>41</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>25</v>
@@ -21056,7 +21059,7 @@
         <v>26</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N55" s="12"/>
     </row>
@@ -21066,7 +21069,7 @@
         <v>110</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>123</v>
@@ -21087,7 +21090,7 @@
         <v>41</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>25</v>
@@ -21096,7 +21099,7 @@
         <v>26</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N56" s="12"/>
     </row>
@@ -21106,7 +21109,7 @@
         <v>110</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>126</v>
@@ -21146,7 +21149,7 @@
         <v>110</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>128</v>
@@ -21941,7 +21944,6 @@
       <c r="K210" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N58" xr:uid="{80AD21E2-8493-41E2-97EA-8DB3DE4DB6E6}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H178:I178">
     <cfRule type="duplicateValues" dxfId="131" priority="190"/>
@@ -22241,7 +22243,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>27</v>
@@ -22591,7 +22593,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>27</v>
@@ -22773,7 +22775,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>27</v>
@@ -22781,13 +22783,13 @@
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>27</v>
@@ -22795,13 +22797,13 @@
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>27</v>
@@ -22809,13 +22811,13 @@
     </row>
     <row r="45" spans="1:4" ht="13">
       <c r="A45" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>27</v>
@@ -22823,13 +22825,13 @@
     </row>
     <row r="46" spans="1:4" ht="13">
       <c r="A46" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>27</v>
@@ -22837,13 +22839,13 @@
     </row>
     <row r="47" spans="1:4" ht="13">
       <c r="A47" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>27</v>
@@ -22851,13 +22853,13 @@
     </row>
     <row r="48" spans="1:4" ht="13">
       <c r="A48" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>27</v>
@@ -22865,13 +22867,13 @@
     </row>
     <row r="49" spans="1:4" ht="13">
       <c r="A49" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>27</v>
@@ -22879,13 +22881,13 @@
     </row>
     <row r="50" spans="1:4" ht="13">
       <c r="A50" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>27</v>
@@ -22893,13 +22895,13 @@
     </row>
     <row r="51" spans="1:4" ht="13">
       <c r="A51" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>27</v>
@@ -22907,13 +22909,13 @@
     </row>
     <row r="52" spans="1:4" ht="13">
       <c r="A52" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>27</v>
@@ -22921,13 +22923,13 @@
     </row>
     <row r="53" spans="1:4" ht="13">
       <c r="A53" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>27</v>
@@ -22935,13 +22937,13 @@
     </row>
     <row r="54" spans="1:4" ht="13">
       <c r="A54" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>27</v>
@@ -22949,13 +22951,13 @@
     </row>
     <row r="55" spans="1:4" ht="13">
       <c r="A55" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>27</v>
@@ -22963,13 +22965,13 @@
     </row>
     <row r="56" spans="1:4" ht="13">
       <c r="A56" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>27</v>
@@ -22977,13 +22979,13 @@
     </row>
     <row r="57" spans="1:4" ht="13">
       <c r="A57" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>27</v>
@@ -22991,13 +22993,13 @@
     </row>
     <row r="58" spans="1:4" ht="13">
       <c r="A58" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>27</v>
@@ -23005,13 +23007,13 @@
     </row>
     <row r="59" spans="1:4" ht="13">
       <c r="A59" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>27</v>
@@ -23019,13 +23021,13 @@
     </row>
     <row r="60" spans="1:4" ht="13">
       <c r="A60" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>27</v>
@@ -23033,13 +23035,13 @@
     </row>
     <row r="61" spans="1:4" ht="13">
       <c r="A61" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>27</v>
@@ -23047,13 +23049,13 @@
     </row>
     <row r="62" spans="1:4" ht="13">
       <c r="A62" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>27</v>
@@ -23061,13 +23063,13 @@
     </row>
     <row r="63" spans="1:4" ht="13">
       <c r="A63" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>27</v>
@@ -23075,13 +23077,13 @@
     </row>
     <row r="64" spans="1:4" ht="13">
       <c r="A64" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>27</v>
@@ -23089,13 +23091,13 @@
     </row>
     <row r="65" spans="1:4" ht="13">
       <c r="A65" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>27</v>
@@ -23103,13 +23105,13 @@
     </row>
     <row r="66" spans="1:4" ht="13">
       <c r="A66" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>27</v>
@@ -23117,13 +23119,13 @@
     </row>
     <row r="67" spans="1:4" ht="13">
       <c r="A67" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>27</v>
@@ -23131,13 +23133,13 @@
     </row>
     <row r="68" spans="1:4" ht="13">
       <c r="A68" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>27</v>
@@ -23145,13 +23147,13 @@
     </row>
     <row r="69" spans="1:4" ht="13">
       <c r="A69" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>27</v>
@@ -23159,13 +23161,13 @@
     </row>
     <row r="70" spans="1:4" ht="13">
       <c r="A70" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>27</v>
@@ -23173,13 +23175,13 @@
     </row>
     <row r="71" spans="1:4" ht="13">
       <c r="A71" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>27</v>
@@ -23187,13 +23189,13 @@
     </row>
     <row r="72" spans="1:4" ht="13">
       <c r="A72" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>27</v>
@@ -23201,13 +23203,13 @@
     </row>
     <row r="73" spans="1:4" ht="13">
       <c r="A73" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>27</v>
@@ -23215,13 +23217,13 @@
     </row>
     <row r="74" spans="1:4" ht="13">
       <c r="A74" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>27</v>
@@ -23229,37 +23231,37 @@
     </row>
     <row r="75" spans="1:4" ht="13">
       <c r="A75" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" ht="13">
       <c r="A76" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" ht="13">
       <c r="A77" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>27</v>
@@ -23267,13 +23269,13 @@
     </row>
     <row r="78" spans="1:4" s="9" customFormat="1" ht="13">
       <c r="A78" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>27</v>

--- a/GL200_Script_LaunchAutoPost_21B.xlsx
+++ b/GL200_Script_LaunchAutoPost_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD65169E-95AB-43C5-ADE0-E614550D7993}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F254DB41-E78B-4B37-B4DC-C2329929C14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchAutoPost" sheetId="30" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LaunchAutoPost!$A$1:$N$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LaunchAutoPost!$A$1:$N$57</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="326">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -532,9 +532,6 @@
     <t>DepartmentValue</t>
   </si>
   <si>
-    <t>Ok</t>
-  </si>
-  <si>
     <t>//select[contains(@id,'pt1:ap1:CurrencyCode1::content')]</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
     <t>Clicked on Submit</t>
   </si>
   <si>
-    <t>Journal Page</t>
-  </si>
-  <si>
     <t>Explicit wait for ScheduledProcessesLink</t>
   </si>
   <si>
@@ -685,9 +679,6 @@
     <t>Succeeded</t>
   </si>
   <si>
-    <t>//a[text()='Scheduled Processes']</t>
-  </si>
-  <si>
     <t>//a/span[text()='Schedule New Process']</t>
   </si>
   <si>
@@ -745,12 +736,6 @@
     <t>Step 30</t>
   </si>
   <si>
-    <t>Step 31</t>
-  </si>
-  <si>
-    <t>Step 32</t>
-  </si>
-  <si>
     <t>Step 33</t>
   </si>
   <si>
@@ -892,12 +877,6 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>//*[@id="groupNode_tools"]</t>
-  </si>
-  <si>
-    <t>Period Close Page</t>
-  </si>
-  <si>
     <t>Wait for Home</t>
   </si>
   <si>
@@ -916,12 +895,6 @@
     <t>Step 45</t>
   </si>
   <si>
-    <t>Click on Navigator icon</t>
-  </si>
-  <si>
-    <t>Clicked on Navigator icon</t>
-  </si>
-  <si>
     <t>wait for submission notes</t>
   </si>
   <si>
@@ -1003,10 +976,34 @@
     <t>Step 55</t>
   </si>
   <si>
+    <t>Step 56</t>
+  </si>
+  <si>
+    <t>Explicit wait for Tools</t>
+  </si>
+  <si>
+    <t>Click on Tools</t>
+  </si>
+  <si>
+    <t>Clicked on Tools</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'groupNode_tools')]/div[1]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'scheduled_processes_fuse_plus::icon')]</t>
+  </si>
+  <si>
     <t>Common</t>
   </si>
   <si>
     <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>HomeIcon</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FOpt1:_UIShome')]</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1017,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1209,20 +1206,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="6"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1475,24 +1465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9457,40 +9429,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7828">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17322,87 +17276,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="124">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18987,3186 +18861,2812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="17.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7265625" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="21.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.08984375" style="2" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="13.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="13.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" ht="19" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="M5" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="M6" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="M24" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="M26" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="M34" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="M47" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="M49" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="B51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="B52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="13">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="D53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="B54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="B55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="B56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="J57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
+      <c r="K57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="13">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="L57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="13">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="13">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="13">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="13">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" ht="13">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="12">
-        <v>120</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="13">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="13">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="13">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="13">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="13">
-      <c r="A16" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" ht="13">
-      <c r="A17" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" ht="13">
-      <c r="A18" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="13">
-      <c r="A19" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="13">
-      <c r="A20" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" ht="13">
-      <c r="A21" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" ht="13">
-      <c r="A22" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" ht="13">
-      <c r="A23" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" ht="13">
-      <c r="A24" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="13">
-      <c r="A25" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="13">
-      <c r="A26" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="13">
-      <c r="A27" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="13">
-      <c r="A28" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="13">
-      <c r="A29" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="13">
-      <c r="A30" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="13">
-      <c r="A31" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="13">
-      <c r="A32" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" ht="13">
-      <c r="A33" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="13">
-      <c r="A34" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" ht="13">
-      <c r="A35" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="13">
-      <c r="A36" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="13">
-      <c r="A37" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="13">
-      <c r="A38" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="13">
-      <c r="A39" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" ht="13">
-      <c r="A40" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" ht="13">
-      <c r="A41" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" ht="13">
-      <c r="A42" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" ht="13">
-      <c r="A43" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" ht="13">
-      <c r="A44" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" ht="13">
-      <c r="A45" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" ht="13">
-      <c r="A46" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" ht="13">
-      <c r="A47" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" ht="13">
-      <c r="A48" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" ht="13">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" ht="13">
-      <c r="A50" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="13">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J51" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" ht="13">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M52" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" ht="13">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N53" s="12"/>
-    </row>
-    <row r="54" spans="1:14" ht="13">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N54" s="12"/>
-    </row>
-    <row r="55" spans="1:14" ht="13">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M55" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" ht="13">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M56" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" ht="13">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" ht="13">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M58" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="58" spans="1:13">
+      <c r="I58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:13">
       <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:13">
       <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:13">
       <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:13">
       <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:13">
       <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="9:11">
       <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="9:11">
       <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="9:11">
       <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="9:11">
       <c r="I68" s="2"/>
-      <c r="J68" s="6"/>
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="9:11">
       <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="9:11">
       <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="9:11">
       <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="9:11">
       <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="9:11">
       <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="9:11">
       <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="9:11">
       <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="9:11">
       <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="9:11">
       <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="9:11">
       <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="9:11">
       <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="9:11">
       <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="9:11">
       <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="9:11">
       <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="9:11">
       <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="9:11">
       <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="9:11">
       <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="9:11">
       <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="9:11">
       <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="9:11">
       <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="9:11">
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="9:11">
       <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="9:11">
       <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="9:11">
       <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="9:11">
       <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="9:11">
       <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="9:11">
       <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="9:11">
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="9:11">
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="9:11">
       <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="9:11">
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="9:11">
       <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="9:11">
       <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="9:11">
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="9:11">
       <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="9:11">
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="9:11">
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="9:11">
       <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="9:11">
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="9:11">
       <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="9:11">
       <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="9:11">
       <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="9:11">
       <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="9:11">
       <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="9:11">
       <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="9:11">
       <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="9:11">
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="9:11">
       <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="9:11">
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="9:11">
       <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="9:11">
       <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
     <row r="120" spans="9:11">
       <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="9:11">
       <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="9:11">
       <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="9:11">
       <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="9:11">
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="9:11">
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="9:11">
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="9:11">
       <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="9:11">
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="9:11">
       <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="9:11">
       <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="9:11">
       <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="9:11">
       <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="9:11">
       <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="9:11">
       <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="9:11">
       <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="9:11">
       <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
     <row r="137" spans="9:11">
       <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="9:11">
       <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
     <row r="139" spans="9:11">
       <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="9:11">
       <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
     <row r="141" spans="9:11">
       <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="9:11">
       <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="9:11">
       <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="9:11">
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="9:11">
       <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
     <row r="146" spans="9:11">
       <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
     <row r="147" spans="9:11">
       <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
     <row r="148" spans="9:11">
       <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
     <row r="149" spans="9:11">
       <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
     <row r="150" spans="9:11">
       <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
     <row r="151" spans="9:11">
       <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
     <row r="152" spans="9:11">
       <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
     <row r="153" spans="9:11">
       <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
     <row r="154" spans="9:11">
       <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
     <row r="155" spans="9:11">
       <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
     <row r="156" spans="9:11">
       <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
     <row r="157" spans="9:11">
       <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
     <row r="158" spans="9:11">
       <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
     <row r="159" spans="9:11">
       <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
     <row r="160" spans="9:11">
       <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
     <row r="161" spans="9:11">
       <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
     <row r="162" spans="9:11">
       <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
     <row r="163" spans="9:11">
       <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
     <row r="164" spans="9:11">
       <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
     <row r="165" spans="9:11">
       <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
     <row r="166" spans="9:11">
       <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
     <row r="167" spans="9:11">
       <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
     <row r="168" spans="9:11">
       <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
     <row r="169" spans="9:11">
       <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
     <row r="170" spans="9:11">
       <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
     <row r="171" spans="9:11">
       <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
     <row r="172" spans="9:11">
       <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
     <row r="173" spans="9:11">
       <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
     <row r="174" spans="9:11">
       <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
     <row r="175" spans="9:11">
       <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
     <row r="176" spans="9:11">
       <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
     <row r="177" spans="9:11">
       <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
     <row r="178" spans="9:11">
       <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
     <row r="179" spans="9:11">
       <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
     <row r="180" spans="9:11">
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
     <row r="181" spans="9:11">
       <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
     <row r="182" spans="9:11">
       <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
     <row r="183" spans="9:11">
       <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
     <row r="184" spans="9:11">
       <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
     <row r="185" spans="9:11">
       <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
     <row r="186" spans="9:11">
       <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
     <row r="187" spans="9:11">
       <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
     <row r="188" spans="9:11">
       <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
     <row r="189" spans="9:11">
       <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
     <row r="190" spans="9:11">
       <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
     <row r="191" spans="9:11">
       <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
     <row r="192" spans="9:11">
       <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="9:11">
+    <row r="193" spans="1:11">
       <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="9:11">
+    <row r="194" spans="1:11">
       <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="9:11">
+    <row r="195" spans="1:11">
       <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="9:11">
+    <row r="196" spans="1:11">
       <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="9:11">
+    <row r="197" spans="1:11">
       <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="9:11">
+    <row r="198" spans="1:11">
       <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="9:11">
+    <row r="199" spans="1:11">
       <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="9:11">
+    <row r="200" spans="1:11">
       <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="9:11">
+    <row r="201" spans="1:11">
       <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="9:11">
+    <row r="202" spans="1:11">
       <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="9:11">
+    <row r="203" spans="1:11">
       <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="9:11">
+    <row r="204" spans="1:11">
       <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="9:11">
+    <row r="205" spans="1:11">
       <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="9:11">
+    <row r="206" spans="1:11">
       <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="9:11">
+    <row r="207" spans="1:11">
       <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="9:11">
+    <row r="208" spans="1:11">
+      <c r="A208" s="4"/>
+      <c r="B208" s="7"/>
       <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11">
-      <c r="A209" s="4"/>
-      <c r="B209" s="7"/>
+    <row r="209" spans="9:11">
       <c r="I209" s="2"/>
-      <c r="J209" s="8"/>
       <c r="K209" s="2"/>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H178:I178">
-    <cfRule type="duplicateValues" dxfId="131" priority="190"/>
+  <conditionalFormatting sqref="H177:I177">
+    <cfRule type="duplicateValues" dxfId="123" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H178:I178">
-    <cfRule type="duplicateValues" dxfId="130" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="192"/>
+  <conditionalFormatting sqref="H177:I177">
+    <cfRule type="duplicateValues" dxfId="122" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="128" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="127" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="duplicateValues" dxfId="118" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="117" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="116" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="duplicateValues" dxfId="115" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="114" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="113" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="112" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="duplicateValues" dxfId="111" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="duplicateValues" dxfId="110" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="109" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="duplicateValues" dxfId="108" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="107" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="duplicateValues" dxfId="106" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="duplicateValues" dxfId="105" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="duplicateValues" dxfId="104" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="103" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="102" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="100" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="99" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="98" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="97" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="96" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="94" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="93" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="92" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="90" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="89" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H33">
+    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="duplicateValues" dxfId="87" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="duplicateValues" dxfId="86" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="duplicateValues" dxfId="85" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="duplicateValues" dxfId="84" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="83" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="duplicateValues" dxfId="82" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="duplicateValues" dxfId="81" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="duplicateValues" dxfId="80" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="duplicateValues" dxfId="79" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="duplicateValues" dxfId="78" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="duplicateValues" dxfId="77" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="duplicateValues" dxfId="76" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="duplicateValues" dxfId="75" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="duplicateValues" dxfId="74" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="duplicateValues" dxfId="73" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="72" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="duplicateValues" dxfId="71" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="126" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="125" priority="117"/>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="69" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="124" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="duplicateValues" dxfId="123" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="122" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="121" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="120" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="119" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="duplicateValues" dxfId="118" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="117" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="116" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="115" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="114" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="duplicateValues" dxfId="113" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="112" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="111" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="110" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="108" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="107" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="106" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="105" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="104" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="102" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="101" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="100" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="98" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="97" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H33">
-    <cfRule type="duplicateValues" dxfId="96" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="95" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="94" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="93" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="92" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="91" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="90" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="duplicateValues" dxfId="89" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="duplicateValues" dxfId="88" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="87" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="86" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="duplicateValues" dxfId="85" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="84" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="83" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="82" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="81" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="duplicateValues" dxfId="80" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="79" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="duplicateValues" dxfId="78" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="duplicateValues" dxfId="68" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="duplicateValues" dxfId="75" priority="24"/>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="duplicateValues" dxfId="66" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="duplicateValues" dxfId="65" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="duplicateValues" dxfId="64" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="63" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="62" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="60" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="59" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="duplicateValues" dxfId="57" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H35">
+    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H35">
+    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="74" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="73" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="71" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="70" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="68" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="64" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="63" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="61" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="60" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I178 I5 I2:I3 I24:I27 I8 I12 I14 I16 I18:I19 I21:I22 I29 I31:I32 I38 I40 I42:I44 I46:I47 I50:I51 I53 I55:I56 I10 I34 I36" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I177 I5 I2:I3 I24:I27 I8 I12 I14 I16 I18:I19 I21:I22 I29 I31:I32 I36 I38 I40:I42 I44:I45 I49:I50 I52 I54:I55 I10 I34 I47" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22178,1108 +21678,1124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="B76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="12" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="78" spans="1:4" s="8" customFormat="1">
+      <c r="A78" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C78" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C79" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13">
-      <c r="A12" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13">
-      <c r="A13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13">
-      <c r="A14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13">
-      <c r="A15" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13">
-      <c r="A16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13">
-      <c r="A17" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13">
-      <c r="A20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13">
-      <c r="A21" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13">
-      <c r="A22" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13">
-      <c r="A23" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13">
-      <c r="A31" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13">
-      <c r="A32" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13">
-      <c r="A33" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13">
-      <c r="A34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13">
-      <c r="A35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="13">
-      <c r="A36" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="13">
-      <c r="A37" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="13">
-      <c r="A38" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13">
-      <c r="A39" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13">
-      <c r="A40" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13">
-      <c r="A41" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13">
-      <c r="A42" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13">
-      <c r="A45" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13">
-      <c r="A46" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13">
-      <c r="A47" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13">
-      <c r="A48" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13">
-      <c r="A49" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13">
-      <c r="A50" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="13">
-      <c r="A51" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13">
-      <c r="A52" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13">
-      <c r="A53" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="13">
-      <c r="A54" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="13">
-      <c r="A55" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13">
-      <c r="A56" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="13">
-      <c r="A57" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="13">
-      <c r="A58" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13">
-      <c r="A59" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13">
-      <c r="A60" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="13">
-      <c r="A61" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="13">
-      <c r="A62" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="13">
-      <c r="A63" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="13">
-      <c r="A64" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="13">
-      <c r="A65" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="13">
-      <c r="A66" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="13">
-      <c r="A67" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="13">
-      <c r="A68" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="13">
-      <c r="A69" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="13">
-      <c r="A70" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="13">
-      <c r="A71" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="13">
-      <c r="A72" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="13">
-      <c r="A73" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="13">
-      <c r="A74" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="13">
-      <c r="A75" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="12"/>
-    </row>
-    <row r="76" spans="1:4" ht="13">
-      <c r="A76" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D76" s="12"/>
-    </row>
-    <row r="77" spans="1:4" ht="13">
-      <c r="A77" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="9" customFormat="1" ht="13">
-      <c r="A78" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>27</v>
-      </c>
+    <row r="80" spans="1:4">
+      <c r="C80" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D64">

--- a/GL200_Script_LaunchAutoPost_21B.xlsx
+++ b/GL200_Script_LaunchAutoPost_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F254DB41-E78B-4B37-B4DC-C2329929C14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53845882-4C1D-46AC-9ECA-1349C7E6DB2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchAutoPost" sheetId="30" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LaunchAutoPost!$A$1:$N$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LaunchAutoPost!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="337">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -799,9 +799,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>//tr[td[1][span[span[text()='AutoPost Journals']]]]/td[3]/span/a</t>
-  </si>
-  <si>
     <t>Step 11</t>
   </si>
   <si>
@@ -1004,6 +1001,42 @@
   </si>
   <si>
     <t>//*[contains(@id,'_FOpt1:_UIShome')]</t>
+  </si>
+  <si>
+    <t>ClickOutputFile</t>
+  </si>
+  <si>
+    <t>DownloadOutputFile</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'lastAttachedFile')]</t>
+  </si>
+  <si>
+    <t>Step 57</t>
+  </si>
+  <si>
+    <t>Step 58</t>
+  </si>
+  <si>
+    <t>Step 59</t>
+  </si>
+  <si>
+    <t>Step 60</t>
+  </si>
+  <si>
+    <t>Click on AutoPost</t>
+  </si>
+  <si>
+    <t>Clicked on AutoPost</t>
+  </si>
+  <si>
+    <t>Clicked on Download File</t>
+  </si>
+  <si>
+    <t>//tr[td[1][span[span[text()='AutoPost Journals']]]]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'panel:result::db')]/table/tbody/tr[1]/td[1]</t>
   </si>
 </sst>
 </file>
@@ -17276,7 +17309,47 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18861,10 +18934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18926,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -18988,7 +19061,7 @@
         <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
@@ -19006,10 +19079,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>27</v>
@@ -19166,7 +19239,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>25</v>
@@ -19221,10 +19294,10 @@
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
@@ -19233,13 +19306,13 @@
         <v>49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="2" t="s">
@@ -19254,10 +19327,10 @@
         <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
@@ -19266,7 +19339,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" s="2"/>
@@ -19294,13 +19367,13 @@
         <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>25</v>
@@ -19332,7 +19405,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>179</v>
@@ -19343,7 +19416,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>184</v>
@@ -19364,7 +19437,7 @@
         <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>25</v>
@@ -19431,7 +19504,7 @@
         <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>179</v>
@@ -19495,7 +19568,7 @@
         <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>179</v>
@@ -19530,7 +19603,7 @@
         <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>179</v>
@@ -19582,16 +19655,16 @@
         <v>183</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K21" s="2"/>
       <c r="M21" s="2" t="s">
@@ -19627,7 +19700,7 @@
         <v>41</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>179</v>
@@ -19709,10 +19782,10 @@
         <v>230</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>27</v>
@@ -19721,13 +19794,13 @@
         <v>49</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>179</v>
@@ -19747,7 +19820,7 @@
         <v>224</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>27</v>
@@ -19756,13 +19829,13 @@
         <v>44</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K26" s="6"/>
       <c r="M26" s="2" t="s">
@@ -19777,7 +19850,7 @@
         <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>199</v>
@@ -19798,7 +19871,7 @@
         <v>41</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>179</v>
@@ -19812,7 +19885,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>200</v>
@@ -19841,7 +19914,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>247</v>
@@ -19862,7 +19935,7 @@
         <v>41</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>25</v>
@@ -19920,16 +19993,16 @@
         <v>183</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K31" s="2"/>
       <c r="M31" s="2" t="s">
@@ -19947,10 +20020,10 @@
         <v>234</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>27</v>
@@ -19959,13 +20032,13 @@
         <v>49</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>179</v>
@@ -19982,10 +20055,10 @@
         <v>235</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>27</v>
@@ -19994,7 +20067,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I33" s="2"/>
       <c r="M33" s="2" t="s">
@@ -20012,10 +20085,10 @@
         <v>236</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>27</v>
@@ -20030,7 +20103,7 @@
         <v>41</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K34" s="2"/>
       <c r="M34" s="2" t="s">
@@ -20048,10 +20121,10 @@
         <v>237</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>27</v>
@@ -20079,10 +20152,10 @@
         <v>238</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>27</v>
@@ -20091,13 +20164,13 @@
         <v>49</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>25</v>
@@ -20117,13 +20190,13 @@
         <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>27</v>
@@ -20132,7 +20205,7 @@
         <v>24</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>25</v>
@@ -20170,7 +20243,7 @@
         <v>41</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>25</v>
@@ -20240,7 +20313,7 @@
         <v>41</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>25</v>
@@ -20269,16 +20342,16 @@
         <v>182</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K41" s="2"/>
       <c r="M41" s="2" t="s">
@@ -20314,7 +20387,7 @@
         <v>41</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>25</v>
@@ -20363,7 +20436,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>182</v>
@@ -20372,23 +20445,23 @@
         <v>182</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K44" s="2"/>
       <c r="M44" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="12" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>191</v>
       </c>
@@ -20396,7 +20469,7 @@
         <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>208</v>
@@ -20417,7 +20490,7 @@
         <v>41</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>25</v>
@@ -20437,7 +20510,7 @@
         <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>210</v>
@@ -20466,7 +20539,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>182</v>
@@ -20475,16 +20548,16 @@
         <v>182</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K47" s="2"/>
       <c r="M47" s="2" t="s">
@@ -20499,7 +20572,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>212</v>
@@ -20531,7 +20604,7 @@
         <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>182</v>
@@ -20540,16 +20613,16 @@
         <v>182</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K49" s="2"/>
       <c r="M49" s="2" t="s">
@@ -20557,147 +20630,125 @@
       </c>
     </row>
     <row r="50" spans="1:13">
+      <c r="A50" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="B50" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>188</v>
+        <v>299</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>304</v>
+        <v>24</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:13">
+      <c r="A51" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="B51" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>113</v>
+        <v>182</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="M51" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:13">
+      <c r="A52" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="B52" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>334</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:13">
+      <c r="A53" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="B53" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>117</v>
+        <v>182</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="K53" s="2"/>
       <c r="M53" s="2" t="s">
         <v>179</v>
       </c>
@@ -20707,13 +20758,13 @@
         <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>312</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>27</v>
@@ -20721,20 +20772,14 @@
       <c r="G54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>122</v>
+      <c r="H54" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>179</v>
@@ -20745,28 +20790,28 @@
         <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>25</v>
@@ -20783,28 +20828,28 @@
         <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>25</v>
@@ -20813,7 +20858,7 @@
         <v>26</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -20821,19 +20866,22 @@
         <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>129</v>
+        <v>24</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>25</v>
@@ -20848,24 +20896,157 @@
         <v>26</v>
       </c>
       <c r="M57" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="B58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="I58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="I59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="B59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="I60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="B60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="I61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="B61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="62" spans="1:13">
       <c r="I62" s="2"/>
@@ -21391,282 +21572,310 @@
       <c r="I192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="9:11">
       <c r="I193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="9:11">
       <c r="I194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="9:11">
       <c r="I195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="9:11">
       <c r="I196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="9:11">
       <c r="I197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="9:11">
       <c r="I198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="9:11">
       <c r="I199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="9:11">
       <c r="I200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="9:11">
       <c r="I201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="9:11">
       <c r="I202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="9:11">
       <c r="I203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="9:11">
       <c r="I204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="9:11">
       <c r="I205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="9:11">
       <c r="I206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="9:11">
       <c r="I207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11">
-      <c r="A208" s="4"/>
-      <c r="B208" s="7"/>
+    <row r="208" spans="9:11">
       <c r="I208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="9:11">
+    <row r="209" spans="1:11">
       <c r="I209" s="2"/>
       <c r="K209" s="2"/>
     </row>
+    <row r="210" spans="1:11">
+      <c r="I210" s="2"/>
+      <c r="K210" s="2"/>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="I211" s="2"/>
+      <c r="K211" s="2"/>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="4"/>
+      <c r="B212" s="7"/>
+      <c r="I212" s="2"/>
+      <c r="K212" s="2"/>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="I213" s="2"/>
+      <c r="K213" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H177:I177">
-    <cfRule type="duplicateValues" dxfId="123" priority="192"/>
+  <conditionalFormatting sqref="H181:I181">
+    <cfRule type="duplicateValues" dxfId="127" priority="206"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H177:I177">
-    <cfRule type="duplicateValues" dxfId="122" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="194"/>
+  <conditionalFormatting sqref="H181:I181">
+    <cfRule type="duplicateValues" dxfId="126" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="120" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="119" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="duplicateValues" dxfId="118" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="117" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="116" priority="114"/>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="duplicateValues" dxfId="120" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="duplicateValues" dxfId="115" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="114" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="113" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="112" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="111" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="110" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="109" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="108" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="107" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="106" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="duplicateValues" dxfId="105" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="104" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="103" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="102" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="100" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="99" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="98" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="97" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="96" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="94" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="93" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="92" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="90" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="89" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H33">
-    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="87" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="86" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="85" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="84" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="83" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="82" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="duplicateValues" dxfId="81" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="duplicateValues" dxfId="80" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="79" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="78" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="duplicateValues" dxfId="77" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="76" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="75" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="74" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="73" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="72" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="duplicateValues" dxfId="71" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="70" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="69" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="68" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="67" priority="26"/>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="duplicateValues" dxfId="73" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="duplicateValues" dxfId="72" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="duplicateValues" dxfId="71" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="66" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="65" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="64" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="63" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="62" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="60" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="59" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="57" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H35">
+    <cfRule type="duplicateValues" dxfId="60" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H35">
+    <cfRule type="duplicateValues" dxfId="59" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="duplicateValues" dxfId="57" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
     <cfRule type="duplicateValues" dxfId="56" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H35">
-    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
     <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H53">
     <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I177 I5 I2:I3 I24:I27 I8 I12 I14 I16 I18:I19 I21:I22 I29 I31:I32 I36 I38 I40:I42 I44:I45 I49:I50 I52 I54:I55 I10 I34 I47" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I181 I5 I2:I3 I24:I27 I8 I12 I14 I16 I18:I19 I21:I22 I29 I31:I32 I36 I38 I40:I42 I44:I45 I47 I56 I58:I59 I10 I34 I49 I51 I53:I54" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21678,10 +21887,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -21743,7 +21952,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -22497,7 +22706,7 @@
         <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>27</v>
@@ -22539,7 +22748,7 @@
         <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>27</v>
@@ -22617,13 +22826,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>27</v>
@@ -22631,13 +22840,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>27</v>
@@ -22645,13 +22854,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>27</v>
@@ -22659,13 +22868,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>27</v>
@@ -22673,13 +22882,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>27</v>
@@ -22687,13 +22896,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>27</v>
@@ -22701,13 +22910,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>27</v>
@@ -22715,13 +22924,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>27</v>
@@ -22729,24 +22938,24 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>27</v>
@@ -22754,13 +22963,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>27</v>
@@ -22768,13 +22977,13 @@
     </row>
     <row r="78" spans="1:4" s="8" customFormat="1">
       <c r="A78" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>27</v>
@@ -22782,13 +22991,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>27</v>
@@ -22796,15 +23005,43 @@
     </row>
     <row r="80" spans="1:4">
       <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D64">
     <sortCondition ref="D13:D64"/>
   </sortState>
-  <conditionalFormatting sqref="A109:A1048576 A35:A41 A1 A51 A55:A57 A63:A64 A77 A79:A107">
+  <conditionalFormatting sqref="A109:A1048576 A35:A41 A1 A51 A55:A57 A63:A64 A77 A79:A80 A83:A107">
     <cfRule type="duplicateValues" dxfId="51" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109:A1048576 A35:A41 A1 A51 A55:A57 A63:A64 A77 A79:A107">
+  <conditionalFormatting sqref="A109:A1048576 A35:A41 A1 A51 A55:A57 A63:A64 A77 A79:A80 A83:A107">
     <cfRule type="duplicateValues" dxfId="50" priority="72"/>
     <cfRule type="duplicateValues" dxfId="49" priority="73"/>
   </conditionalFormatting>
